--- a/data/Ventas_0002_00_240411.xlsx
+++ b/data/Ventas_0002_00_240411.xlsx
@@ -123,15 +123,23 @@
     <t>PAPP ZSOLT</t>
   </si>
   <si>
-    <t>A19253</t>
+    <t>A19305</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -159,10 +167,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E7:E8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -626,8 +635,12 @@
         <v>430000344</v>
       </c>
     </row>
+    <row r="5" spans="1:32">
+      <c r="A5" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
